--- a/assets/siswa-format.xlsx
+++ b/assets/siswa-format.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Alamat</t>
+  </si>
+  <si>
+    <t>Nama Orang Tua/ Wali</t>
+  </si>
+  <si>
+    <t>No Telepon</t>
   </si>
   <si>
     <t>Total Periksa</t>
@@ -44,6 +50,12 @@
   </si>
   <si>
     <t>Jl. Bringin *contoh</t>
+  </si>
+  <si>
+    <t>Ahmad *contoh</t>
+  </si>
+  <si>
+    <t>08xxxx *contoh</t>
   </si>
   <si>
     <t>*dikosongi jika belum pernah periksa</t>
@@ -92,23 +104,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -330,9 +339,9 @@
     <col customWidth="1" min="3" max="3" width="22.14"/>
     <col customWidth="1" min="4" max="4" width="41.57"/>
     <col customWidth="1" min="5" max="5" width="16.71"/>
-    <col customWidth="1" min="6" max="6" width="31.86"/>
+    <col customWidth="1" min="6" max="6" width="24.0"/>
     <col customWidth="1" min="7" max="7" width="15.57"/>
-    <col customWidth="1" min="8" max="8" width="15.14"/>
+    <col customWidth="1" min="8" max="8" width="32.86"/>
     <col customWidth="1" min="9" max="9" width="9.71"/>
     <col customWidth="1" min="10" max="10" width="19.57"/>
     <col customWidth="1" min="11" max="11" width="16.14"/>
@@ -354,907 +363,917 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="1"/>
-      <c r="K3" s="4"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4">
-      <c r="D4" s="8"/>
-      <c r="K4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5">
-      <c r="D5" s="8"/>
-      <c r="K5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6">
-      <c r="D6" s="8"/>
-      <c r="K6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7">
-      <c r="D7" s="8"/>
-      <c r="K7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8">
-      <c r="D8" s="8"/>
-      <c r="K8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9">
-      <c r="D9" s="8"/>
-      <c r="K9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="K9" s="6"/>
     </row>
     <row r="10">
-      <c r="D10" s="8"/>
-      <c r="K10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11">
-      <c r="D11" s="8"/>
-      <c r="K11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12">
-      <c r="D12" s="8"/>
-      <c r="K12" s="4"/>
+      <c r="D12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13">
-      <c r="D13" s="8"/>
-      <c r="K13" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="K13" s="6"/>
     </row>
     <row r="14">
-      <c r="D14" s="8"/>
-      <c r="K14" s="4"/>
+      <c r="D14" s="7"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15">
-      <c r="D15" s="8"/>
-      <c r="K15" s="4"/>
+      <c r="D15" s="7"/>
+      <c r="K15" s="6"/>
     </row>
     <row r="16">
-      <c r="D16" s="8"/>
-      <c r="K16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17">
-      <c r="D17" s="8"/>
-      <c r="K17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="K17" s="6"/>
     </row>
     <row r="18">
-      <c r="D18" s="8"/>
-      <c r="K18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19">
-      <c r="D19" s="8"/>
-      <c r="K19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="D20" s="8"/>
-      <c r="K20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="D21" s="8"/>
-      <c r="K21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="D22" s="8"/>
-      <c r="K22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="D23" s="8"/>
-      <c r="K23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="D24" s="8"/>
-      <c r="K24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="D25" s="8"/>
-      <c r="K25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="K25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="D26" s="8"/>
-      <c r="K26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="K26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="D27" s="8"/>
-      <c r="K27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="K27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="D28" s="8"/>
-      <c r="K28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="K28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="D29" s="8"/>
-      <c r="K29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="K29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="D30" s="8"/>
-      <c r="K30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="K30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="D31" s="8"/>
-      <c r="K31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="K31" s="6"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="D32" s="8"/>
-      <c r="K32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="K32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="D33" s="8"/>
-      <c r="K33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="D34" s="8"/>
-      <c r="K34" s="4"/>
+      <c r="D34" s="7"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="D35" s="8"/>
-      <c r="K35" s="4"/>
+      <c r="D35" s="7"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="D36" s="8"/>
-      <c r="K36" s="4"/>
+      <c r="D36" s="7"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="D37" s="8"/>
-      <c r="K37" s="4"/>
+      <c r="D37" s="7"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="D38" s="8"/>
-      <c r="K38" s="4"/>
+      <c r="D38" s="7"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="D39" s="8"/>
-      <c r="K39" s="4"/>
+      <c r="D39" s="7"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="D40" s="8"/>
-      <c r="K40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="D41" s="8"/>
-      <c r="K41" s="4"/>
+      <c r="D41" s="7"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="D42" s="8"/>
-      <c r="K42" s="4"/>
+      <c r="D42" s="7"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="D43" s="8"/>
-      <c r="K43" s="4"/>
+      <c r="D43" s="7"/>
+      <c r="K43" s="6"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="D44" s="8"/>
-      <c r="K44" s="4"/>
+      <c r="D44" s="7"/>
+      <c r="K44" s="6"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="D45" s="8"/>
-      <c r="K45" s="4"/>
+      <c r="D45" s="7"/>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="D46" s="8"/>
-      <c r="K46" s="4"/>
+      <c r="D46" s="7"/>
+      <c r="K46" s="6"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="D47" s="8"/>
-      <c r="K47" s="4"/>
+      <c r="D47" s="7"/>
+      <c r="K47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="D48" s="8"/>
-      <c r="K48" s="4"/>
+      <c r="D48" s="7"/>
+      <c r="K48" s="6"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="D49" s="8"/>
-      <c r="K49" s="4"/>
+      <c r="D49" s="7"/>
+      <c r="K49" s="6"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="D50" s="8"/>
-      <c r="K50" s="4"/>
+      <c r="D50" s="7"/>
+      <c r="K50" s="6"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="D51" s="8"/>
-      <c r="K51" s="4"/>
+      <c r="D51" s="7"/>
+      <c r="K51" s="6"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="D52" s="8"/>
-      <c r="K52" s="4"/>
+      <c r="D52" s="7"/>
+      <c r="K52" s="6"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="D53" s="8"/>
-      <c r="K53" s="4"/>
+      <c r="D53" s="7"/>
+      <c r="K53" s="6"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="D54" s="8"/>
-      <c r="K54" s="4"/>
+      <c r="D54" s="7"/>
+      <c r="K54" s="6"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="D55" s="8"/>
-      <c r="K55" s="4"/>
+      <c r="D55" s="7"/>
+      <c r="K55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="D56" s="8"/>
-      <c r="K56" s="4"/>
+      <c r="D56" s="7"/>
+      <c r="K56" s="6"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="D57" s="8"/>
-      <c r="K57" s="4"/>
+      <c r="D57" s="7"/>
+      <c r="K57" s="6"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="D58" s="8"/>
-      <c r="K58" s="4"/>
+      <c r="D58" s="7"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="D59" s="8"/>
-      <c r="K59" s="4"/>
+      <c r="D59" s="7"/>
+      <c r="K59" s="6"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="D60" s="8"/>
-      <c r="K60" s="4"/>
+      <c r="D60" s="7"/>
+      <c r="K60" s="6"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="D61" s="8"/>
-      <c r="K61" s="4"/>
+      <c r="D61" s="7"/>
+      <c r="K61" s="6"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="D62" s="8"/>
-      <c r="K62" s="4"/>
+      <c r="D62" s="7"/>
+      <c r="K62" s="6"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="D63" s="8"/>
-      <c r="K63" s="4"/>
+      <c r="D63" s="7"/>
+      <c r="K63" s="6"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="D64" s="8"/>
-      <c r="K64" s="4"/>
+      <c r="D64" s="7"/>
+      <c r="K64" s="6"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="D65" s="8"/>
-      <c r="K65" s="4"/>
+      <c r="D65" s="7"/>
+      <c r="K65" s="6"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="D66" s="8"/>
-      <c r="K66" s="4"/>
+      <c r="D66" s="7"/>
+      <c r="K66" s="6"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="D67" s="8"/>
-      <c r="K67" s="4"/>
+      <c r="D67" s="7"/>
+      <c r="K67" s="6"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="D68" s="8"/>
-      <c r="K68" s="4"/>
+      <c r="D68" s="7"/>
+      <c r="K68" s="6"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="8"/>
-      <c r="K69" s="4"/>
+      <c r="D69" s="7"/>
+      <c r="K69" s="6"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="8"/>
-      <c r="K70" s="4"/>
+      <c r="D70" s="7"/>
+      <c r="K70" s="6"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="8"/>
-      <c r="K71" s="4"/>
+      <c r="D71" s="7"/>
+      <c r="K71" s="6"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="8"/>
-      <c r="K72" s="4"/>
+      <c r="D72" s="7"/>
+      <c r="K72" s="6"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="8"/>
-      <c r="K73" s="4"/>
+      <c r="D73" s="7"/>
+      <c r="K73" s="6"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="8"/>
-      <c r="K74" s="4"/>
+      <c r="D74" s="7"/>
+      <c r="K74" s="6"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="D75" s="8"/>
-      <c r="K75" s="4"/>
+      <c r="D75" s="7"/>
+      <c r="K75" s="6"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="D76" s="8"/>
-      <c r="K76" s="4"/>
+      <c r="D76" s="7"/>
+      <c r="K76" s="6"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="D77" s="8"/>
-      <c r="K77" s="4"/>
+      <c r="D77" s="7"/>
+      <c r="K77" s="6"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="D78" s="8"/>
-      <c r="K78" s="4"/>
+      <c r="D78" s="7"/>
+      <c r="K78" s="6"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="D79" s="8"/>
-      <c r="K79" s="4"/>
+      <c r="D79" s="7"/>
+      <c r="K79" s="6"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="D80" s="8"/>
-      <c r="K80" s="4"/>
+      <c r="D80" s="7"/>
+      <c r="K80" s="6"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="D81" s="8"/>
-      <c r="K81" s="4"/>
+      <c r="D81" s="7"/>
+      <c r="K81" s="6"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="D82" s="8"/>
-      <c r="K82" s="4"/>
+      <c r="D82" s="7"/>
+      <c r="K82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="D83" s="8"/>
-      <c r="K83" s="4"/>
+      <c r="D83" s="7"/>
+      <c r="K83" s="6"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="D84" s="8"/>
-      <c r="K84" s="4"/>
+      <c r="D84" s="7"/>
+      <c r="K84" s="6"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="D85" s="8"/>
-      <c r="K85" s="4"/>
+      <c r="D85" s="7"/>
+      <c r="K85" s="6"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="D86" s="8"/>
-      <c r="K86" s="4"/>
+      <c r="D86" s="7"/>
+      <c r="K86" s="6"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="D87" s="8"/>
-      <c r="K87" s="4"/>
+      <c r="D87" s="7"/>
+      <c r="K87" s="6"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="D88" s="8"/>
-      <c r="K88" s="4"/>
+      <c r="D88" s="7"/>
+      <c r="K88" s="6"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="D89" s="8"/>
-      <c r="K89" s="4"/>
+      <c r="D89" s="7"/>
+      <c r="K89" s="6"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="D90" s="8"/>
-      <c r="K90" s="4"/>
+      <c r="D90" s="7"/>
+      <c r="K90" s="6"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="D91" s="8"/>
-      <c r="K91" s="4"/>
+      <c r="D91" s="7"/>
+      <c r="K91" s="6"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="D92" s="8"/>
-      <c r="K92" s="4"/>
+      <c r="D92" s="7"/>
+      <c r="K92" s="6"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="D93" s="8"/>
-      <c r="K93" s="4"/>
+      <c r="D93" s="7"/>
+      <c r="K93" s="6"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="D94" s="8"/>
-      <c r="K94" s="4"/>
+      <c r="D94" s="7"/>
+      <c r="K94" s="6"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="D95" s="8"/>
-      <c r="K95" s="4"/>
+      <c r="D95" s="7"/>
+      <c r="K95" s="6"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="D96" s="8"/>
-      <c r="K96" s="4"/>
+      <c r="D96" s="7"/>
+      <c r="K96" s="6"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="D97" s="8"/>
-      <c r="K97" s="4"/>
+      <c r="D97" s="7"/>
+      <c r="K97" s="6"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="D98" s="8"/>
-      <c r="K98" s="4"/>
+      <c r="D98" s="7"/>
+      <c r="K98" s="6"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="D99" s="8"/>
-      <c r="K99" s="4"/>
+      <c r="D99" s="7"/>
+      <c r="K99" s="6"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="D100" s="8"/>
-      <c r="K100" s="4"/>
+      <c r="D100" s="7"/>
+      <c r="K100" s="6"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="D101" s="8"/>
-      <c r="K101" s="4"/>
+      <c r="D101" s="7"/>
+      <c r="K101" s="6"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="D102" s="8"/>
-      <c r="K102" s="4"/>
+      <c r="D102" s="7"/>
+      <c r="K102" s="6"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="D103" s="8"/>
-      <c r="K103" s="4"/>
+      <c r="D103" s="7"/>
+      <c r="K103" s="6"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="D104" s="8"/>
-      <c r="K104" s="4"/>
+      <c r="D104" s="7"/>
+      <c r="K104" s="6"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="D105" s="8"/>
-      <c r="K105" s="4"/>
+      <c r="D105" s="7"/>
+      <c r="K105" s="6"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="D106" s="8"/>
-      <c r="K106" s="4"/>
+      <c r="D106" s="7"/>
+      <c r="K106" s="6"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="D107" s="8"/>
-      <c r="K107" s="4"/>
+      <c r="D107" s="7"/>
+      <c r="K107" s="6"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="D108" s="8"/>
-      <c r="K108" s="4"/>
+      <c r="D108" s="7"/>
+      <c r="K108" s="6"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="D109" s="8"/>
-      <c r="K109" s="4"/>
+      <c r="D109" s="7"/>
+      <c r="K109" s="6"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="D110" s="8"/>
-      <c r="K110" s="4"/>
+      <c r="D110" s="7"/>
+      <c r="K110" s="6"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="D111" s="8"/>
-      <c r="K111" s="4"/>
+      <c r="D111" s="7"/>
+      <c r="K111" s="6"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="D112" s="8"/>
-      <c r="K112" s="4"/>
+      <c r="D112" s="7"/>
+      <c r="K112" s="6"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="D113" s="8"/>
-      <c r="K113" s="4"/>
+      <c r="D113" s="7"/>
+      <c r="K113" s="6"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="D114" s="8"/>
-      <c r="K114" s="4"/>
+      <c r="D114" s="7"/>
+      <c r="K114" s="6"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="D115" s="8"/>
-      <c r="K115" s="4"/>
+      <c r="D115" s="7"/>
+      <c r="K115" s="6"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="D116" s="8"/>
-      <c r="K116" s="4"/>
+      <c r="D116" s="7"/>
+      <c r="K116" s="6"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="D117" s="8"/>
-      <c r="K117" s="4"/>
+      <c r="D117" s="7"/>
+      <c r="K117" s="6"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="D118" s="8"/>
-      <c r="K118" s="4"/>
+      <c r="D118" s="7"/>
+      <c r="K118" s="6"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="D119" s="8"/>
-      <c r="K119" s="4"/>
+      <c r="D119" s="7"/>
+      <c r="K119" s="6"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="D120" s="8"/>
-      <c r="K120" s="4"/>
+      <c r="D120" s="7"/>
+      <c r="K120" s="6"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="D121" s="8"/>
-      <c r="K121" s="4"/>
+      <c r="D121" s="7"/>
+      <c r="K121" s="6"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="D122" s="8"/>
-      <c r="K122" s="4"/>
+      <c r="D122" s="7"/>
+      <c r="K122" s="6"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="D123" s="8"/>
-      <c r="K123" s="4"/>
+      <c r="D123" s="7"/>
+      <c r="K123" s="6"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="D124" s="8"/>
-      <c r="K124" s="4"/>
+      <c r="D124" s="7"/>
+      <c r="K124" s="6"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="D125" s="8"/>
-      <c r="K125" s="4"/>
+      <c r="D125" s="7"/>
+      <c r="K125" s="6"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="D126" s="8"/>
-      <c r="K126" s="4"/>
+      <c r="D126" s="7"/>
+      <c r="K126" s="6"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="D127" s="8"/>
-      <c r="K127" s="4"/>
+      <c r="D127" s="7"/>
+      <c r="K127" s="6"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="8"/>
-      <c r="K128" s="4"/>
+      <c r="D128" s="7"/>
+      <c r="K128" s="6"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="D129" s="8"/>
-      <c r="K129" s="4"/>
+      <c r="D129" s="7"/>
+      <c r="K129" s="6"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="8"/>
-      <c r="K130" s="4"/>
+      <c r="D130" s="7"/>
+      <c r="K130" s="6"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="D131" s="8"/>
-      <c r="K131" s="4"/>
+      <c r="D131" s="7"/>
+      <c r="K131" s="6"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="8"/>
-      <c r="K132" s="4"/>
+      <c r="D132" s="7"/>
+      <c r="K132" s="6"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="8"/>
-      <c r="K133" s="4"/>
+      <c r="D133" s="7"/>
+      <c r="K133" s="6"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="8"/>
-      <c r="K134" s="4"/>
+      <c r="D134" s="7"/>
+      <c r="K134" s="6"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="8"/>
-      <c r="K135" s="4"/>
+      <c r="D135" s="7"/>
+      <c r="K135" s="6"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="8"/>
-      <c r="K136" s="4"/>
+      <c r="D136" s="7"/>
+      <c r="K136" s="6"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="8"/>
-      <c r="K137" s="4"/>
+      <c r="D137" s="7"/>
+      <c r="K137" s="6"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="8"/>
-      <c r="K138" s="4"/>
+      <c r="D138" s="7"/>
+      <c r="K138" s="6"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="8"/>
-      <c r="K139" s="4"/>
+      <c r="D139" s="7"/>
+      <c r="K139" s="6"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="8"/>
-      <c r="K140" s="4"/>
+      <c r="D140" s="7"/>
+      <c r="K140" s="6"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="8"/>
-      <c r="K141" s="4"/>
+      <c r="D141" s="7"/>
+      <c r="K141" s="6"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="8"/>
-      <c r="K142" s="4"/>
+      <c r="D142" s="7"/>
+      <c r="K142" s="6"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="8"/>
-      <c r="K143" s="4"/>
+      <c r="D143" s="7"/>
+      <c r="K143" s="6"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="8"/>
-      <c r="K144" s="4"/>
+      <c r="D144" s="7"/>
+      <c r="K144" s="6"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="8"/>
-      <c r="K145" s="4"/>
+      <c r="D145" s="7"/>
+      <c r="K145" s="6"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="8"/>
-      <c r="K146" s="4"/>
+      <c r="D146" s="7"/>
+      <c r="K146" s="6"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="8"/>
-      <c r="K147" s="4"/>
+      <c r="D147" s="7"/>
+      <c r="K147" s="6"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="8"/>
-      <c r="K148" s="4"/>
+      <c r="D148" s="7"/>
+      <c r="K148" s="6"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="8"/>
-      <c r="K149" s="4"/>
+      <c r="D149" s="7"/>
+      <c r="K149" s="6"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="8"/>
-      <c r="K150" s="4"/>
+      <c r="D150" s="7"/>
+      <c r="K150" s="6"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="8"/>
-      <c r="K151" s="4"/>
+      <c r="D151" s="7"/>
+      <c r="K151" s="6"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="8"/>
-      <c r="K152" s="4"/>
+      <c r="D152" s="7"/>
+      <c r="K152" s="6"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="D153" s="8"/>
-      <c r="K153" s="4"/>
+      <c r="D153" s="7"/>
+      <c r="K153" s="6"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="D154" s="8"/>
-      <c r="K154" s="4"/>
+      <c r="D154" s="7"/>
+      <c r="K154" s="6"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="D155" s="8"/>
-      <c r="K155" s="4"/>
+      <c r="D155" s="7"/>
+      <c r="K155" s="6"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="D156" s="8"/>
-      <c r="K156" s="4"/>
+      <c r="D156" s="7"/>
+      <c r="K156" s="6"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="D157" s="8"/>
-      <c r="K157" s="4"/>
+      <c r="D157" s="7"/>
+      <c r="K157" s="6"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="D158" s="8"/>
-      <c r="K158" s="4"/>
+      <c r="D158" s="7"/>
+      <c r="K158" s="6"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="8"/>
-      <c r="K159" s="4"/>
+      <c r="D159" s="7"/>
+      <c r="K159" s="6"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="D160" s="8"/>
-      <c r="K160" s="4"/>
+      <c r="D160" s="7"/>
+      <c r="K160" s="6"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="D161" s="8"/>
-      <c r="K161" s="4"/>
+      <c r="D161" s="7"/>
+      <c r="K161" s="6"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="D162" s="8"/>
-      <c r="K162" s="4"/>
+      <c r="D162" s="7"/>
+      <c r="K162" s="6"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="8"/>
-      <c r="K163" s="4"/>
+      <c r="D163" s="7"/>
+      <c r="K163" s="6"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="D164" s="8"/>
-      <c r="K164" s="4"/>
+      <c r="D164" s="7"/>
+      <c r="K164" s="6"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="8"/>
-      <c r="K165" s="4"/>
+      <c r="D165" s="7"/>
+      <c r="K165" s="6"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="D166" s="8"/>
-      <c r="K166" s="4"/>
+      <c r="D166" s="7"/>
+      <c r="K166" s="6"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="8"/>
-      <c r="K167" s="4"/>
+      <c r="D167" s="7"/>
+      <c r="K167" s="6"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="D168" s="8"/>
-      <c r="K168" s="4"/>
+      <c r="D168" s="7"/>
+      <c r="K168" s="6"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="8"/>
-      <c r="K169" s="4"/>
+      <c r="D169" s="7"/>
+      <c r="K169" s="6"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="D170" s="8"/>
-      <c r="K170" s="4"/>
+      <c r="D170" s="7"/>
+      <c r="K170" s="6"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="D171" s="8"/>
-      <c r="K171" s="4"/>
+      <c r="D171" s="7"/>
+      <c r="K171" s="6"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="D172" s="8"/>
-      <c r="K172" s="4"/>
+      <c r="D172" s="7"/>
+      <c r="K172" s="6"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="D173" s="8"/>
-      <c r="K173" s="4"/>
+      <c r="D173" s="7"/>
+      <c r="K173" s="6"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="D174" s="8"/>
-      <c r="K174" s="4"/>
+      <c r="D174" s="7"/>
+      <c r="K174" s="6"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="D175" s="8"/>
-      <c r="K175" s="4"/>
+      <c r="D175" s="7"/>
+      <c r="K175" s="6"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="D176" s="8"/>
-      <c r="K176" s="4"/>
+      <c r="D176" s="7"/>
+      <c r="K176" s="6"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="D177" s="8"/>
-      <c r="K177" s="4"/>
+      <c r="D177" s="7"/>
+      <c r="K177" s="6"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="D178" s="8"/>
-      <c r="K178" s="4"/>
+      <c r="D178" s="7"/>
+      <c r="K178" s="6"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="D179" s="8"/>
-      <c r="K179" s="4"/>
+      <c r="D179" s="7"/>
+      <c r="K179" s="6"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="D180" s="8"/>
-      <c r="K180" s="4"/>
+      <c r="D180" s="7"/>
+      <c r="K180" s="6"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="D181" s="8"/>
-      <c r="K181" s="4"/>
+      <c r="D181" s="7"/>
+      <c r="K181" s="6"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="D182" s="8"/>
-      <c r="K182" s="4"/>
+      <c r="D182" s="7"/>
+      <c r="K182" s="6"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="D183" s="8"/>
-      <c r="K183" s="4"/>
+      <c r="D183" s="7"/>
+      <c r="K183" s="6"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="D184" s="8"/>
-      <c r="K184" s="4"/>
+      <c r="D184" s="7"/>
+      <c r="K184" s="6"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="D185" s="8"/>
-      <c r="K185" s="4"/>
+      <c r="D185" s="7"/>
+      <c r="K185" s="6"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="D186" s="8"/>
-      <c r="K186" s="4"/>
+      <c r="D186" s="7"/>
+      <c r="K186" s="6"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="D187" s="8"/>
-      <c r="K187" s="4"/>
+      <c r="D187" s="7"/>
+      <c r="K187" s="6"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="D188" s="8"/>
-      <c r="K188" s="4"/>
+      <c r="D188" s="7"/>
+      <c r="K188" s="6"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="D189" s="8"/>
-      <c r="K189" s="4"/>
+      <c r="D189" s="7"/>
+      <c r="K189" s="6"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="D190" s="8"/>
-      <c r="K190" s="4"/>
+      <c r="D190" s="7"/>
+      <c r="K190" s="6"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="D191" s="8"/>
-      <c r="K191" s="4"/>
+      <c r="D191" s="7"/>
+      <c r="K191" s="6"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="D192" s="8"/>
-      <c r="K192" s="4"/>
+      <c r="D192" s="7"/>
+      <c r="K192" s="6"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="D193" s="8"/>
-      <c r="K193" s="4"/>
+      <c r="D193" s="7"/>
+      <c r="K193" s="6"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="D194" s="8"/>
-      <c r="K194" s="4"/>
+      <c r="D194" s="7"/>
+      <c r="K194" s="6"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="D195" s="8"/>
-      <c r="K195" s="4"/>
+      <c r="D195" s="7"/>
+      <c r="K195" s="6"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="D196" s="8"/>
-      <c r="K196" s="4"/>
+      <c r="D196" s="7"/>
+      <c r="K196" s="6"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="D197" s="8"/>
-      <c r="K197" s="4"/>
+      <c r="D197" s="7"/>
+      <c r="K197" s="6"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="D198" s="8"/>
-      <c r="K198" s="4"/>
+      <c r="D198" s="7"/>
+      <c r="K198" s="6"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="D199" s="8"/>
-      <c r="K199" s="4"/>
+      <c r="D199" s="7"/>
+      <c r="K199" s="6"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="D200" s="8"/>
-      <c r="K200" s="4"/>
+      <c r="D200" s="7"/>
+      <c r="K200" s="6"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="D201" s="8"/>
-      <c r="K201" s="4"/>
+      <c r="D201" s="7"/>
+      <c r="K201" s="6"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="D202" s="8"/>
-      <c r="K202" s="4"/>
+      <c r="D202" s="7"/>
+      <c r="K202" s="6"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="D203" s="8"/>
-      <c r="K203" s="4"/>
+      <c r="D203" s="7"/>
+      <c r="K203" s="6"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="D204" s="8"/>
-      <c r="K204" s="4"/>
+      <c r="D204" s="7"/>
+      <c r="K204" s="6"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="D205" s="8"/>
-      <c r="K205" s="4"/>
+      <c r="D205" s="7"/>
+      <c r="K205" s="6"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="D206" s="8"/>
-      <c r="K206" s="4"/>
+      <c r="D206" s="7"/>
+      <c r="K206" s="6"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="D207" s="8"/>
-      <c r="K207" s="4"/>
+      <c r="D207" s="7"/>
+      <c r="K207" s="6"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="D208" s="8"/>
-      <c r="K208" s="4"/>
+      <c r="D208" s="7"/>
+      <c r="K208" s="6"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="D209" s="8"/>
-      <c r="K209" s="4"/>
+      <c r="D209" s="7"/>
+      <c r="K209" s="6"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="D210" s="8"/>
-      <c r="K210" s="4"/>
+      <c r="D210" s="7"/>
+      <c r="K210" s="6"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="D211" s="8"/>
-      <c r="K211" s="4"/>
+      <c r="D211" s="7"/>
+      <c r="K211" s="6"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="D212" s="8"/>
-      <c r="K212" s="4"/>
+      <c r="D212" s="7"/>
+      <c r="K212" s="6"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="D213" s="8"/>
-      <c r="K213" s="4"/>
+      <c r="D213" s="7"/>
+      <c r="K213" s="6"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="D214" s="8"/>
-      <c r="K214" s="4"/>
+      <c r="D214" s="7"/>
+      <c r="K214" s="6"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="D215" s="8"/>
-      <c r="K215" s="4"/>
+      <c r="D215" s="7"/>
+      <c r="K215" s="6"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="D216" s="8"/>
-      <c r="K216" s="4"/>
+      <c r="D216" s="7"/>
+      <c r="K216" s="6"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="D217" s="8"/>
-      <c r="K217" s="4"/>
+      <c r="D217" s="7"/>
+      <c r="K217" s="6"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="D218" s="8"/>
-      <c r="K218" s="4"/>
+      <c r="D218" s="7"/>
+      <c r="K218" s="6"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="8"/>
-      <c r="K219" s="4"/>
+      <c r="D219" s="7"/>
+      <c r="K219" s="6"/>
     </row>
     <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
@@ -2036,6 +2055,7 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
